--- a/debug/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [default].xlsx
+++ b/debug/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [default].xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="339">
   <si>
     <t>Поз. обозначение</t>
   </si>
@@ -38,25 +38,34 @@
     <t>Кол-во</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Устройство</t>
+  </si>
+  <si>
+    <t>GeoS-5M</t>
+  </si>
+  <si>
+    <t>Geostar</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>Устройство</t>
-  </si>
-  <si>
     <t>VRB4812ZP-6WR3</t>
   </si>
   <si>
     <t>MORNSUN</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>GeoS-5M</t>
-  </si>
-  <si>
-    <t>Geostar</t>
+    <t>BL2</t>
+  </si>
+  <si>
+    <t>Фототранзистор</t>
+  </si>
+  <si>
+    <t>APA3010P3BT</t>
   </si>
   <si>
     <t>BL1</t>
@@ -68,25 +77,16 @@
     <t>TEMD5510FX01</t>
   </si>
   <si>
-    <t>BL2</t>
-  </si>
-  <si>
-    <t>Фототранзистор</t>
-  </si>
-  <si>
-    <t>APA3010P3BT</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
     <t>Конденсатор</t>
   </si>
   <si>
-    <t>CC0603JRNPO9BN220</t>
-  </si>
-  <si>
-    <t>керам., чип 0603, NP0, 22пФ ±5%, 50В</t>
+    <t>CC0603BRNPO9BN1R0</t>
+  </si>
+  <si>
+    <t>керам., чип 0603, NP0, 1пФ ±0.1пФ, 50В</t>
   </si>
   <si>
     <t>0603</t>
@@ -104,6 +104,21 @@
     <t>керам., чип 0603, X7R, 0.1мкФ ±10%, 50В</t>
   </si>
   <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>593D476X9016C</t>
+  </si>
+  <si>
+    <t>тантал., чип C, 47мкФ ±10%, 16В</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
@@ -119,21 +134,6 @@
     <t>Panasonic</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>593D476X9016C</t>
-  </si>
-  <si>
-    <t>тантал., чип C, 47мкФ ±10%, 16В</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
@@ -143,6 +143,9 @@
     <t>алюм. эл-лит, рад. 18*35мм, 470мкФ ±20%, 100В, низк. имп.</t>
   </si>
   <si>
+    <t>18×36</t>
+  </si>
+  <si>
     <t>EPCOS</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
     <t>алюм. полим., рад. 10*12мм, 1000мкФ ±20%, 16В</t>
   </si>
   <si>
+    <t>10×12</t>
+  </si>
+  <si>
     <t>KEMET</t>
   </si>
   <si>
@@ -167,9 +173,708 @@
     <t>ионистор, рад. 20*40мм, 100Ф +50…-20%, 2.7В</t>
   </si>
   <si>
+    <t>20×40</t>
+  </si>
+  <si>
     <t>АО «Элеконд»</t>
   </si>
   <si>
+    <t>DA3</t>
+  </si>
+  <si>
+    <t>Микросхема</t>
+  </si>
+  <si>
+    <t>LP5907MFX-3.3</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>DD2</t>
+  </si>
+  <si>
+    <t>SCM3725ASA</t>
+  </si>
+  <si>
+    <t>SO-8</t>
+  </si>
+  <si>
+    <t>MORNSUN Guangzhou Science &amp; Technology Co., Ltd.</t>
+  </si>
+  <si>
+    <t>DD1</t>
+  </si>
+  <si>
+    <t>SN74LVC1G126DBV</t>
+  </si>
+  <si>
+    <t>DA2</t>
+  </si>
+  <si>
+    <t>TPS561201DDC</t>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+  </si>
+  <si>
+    <t>EF1</t>
+  </si>
+  <si>
+    <t>Крепёж</t>
+  </si>
+  <si>
+    <t>SMTSO-M2-2ET</t>
+  </si>
+  <si>
+    <t>стойка, SMD, M2*0.4, 2мм</t>
+  </si>
+  <si>
+    <t>PEM</t>
+  </si>
+  <si>
+    <t>ER1</t>
+  </si>
+  <si>
+    <t>Радиатор</t>
+  </si>
+  <si>
+    <t>FK 244 13 D2 PAK</t>
+  </si>
+  <si>
+    <t>Fischer Elektronik</t>
+  </si>
+  <si>
+    <t>FU1</t>
+  </si>
+  <si>
+    <t>Предохранитель</t>
+  </si>
+  <si>
+    <t>0451001.</t>
+  </si>
+  <si>
+    <t>плавкий, чип 2410, 1А, 0.6029А²с, быстрый</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>Littelfuse, Inc.</t>
+  </si>
+  <si>
+    <t>FP1</t>
+  </si>
+  <si>
+    <t>MF-MSMF014</t>
+  </si>
+  <si>
+    <t>самовосст., чип 1812, 140мА, 60В</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>FU2</t>
+  </si>
+  <si>
+    <t>ZH242</t>
+  </si>
+  <si>
+    <t>держатель</t>
+  </si>
+  <si>
+    <t>FV5</t>
+  </si>
+  <si>
+    <t>Супрессор</t>
+  </si>
+  <si>
+    <t>CDSOT23-T24CAN</t>
+  </si>
+  <si>
+    <t>сборка</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>FV4</t>
+  </si>
+  <si>
+    <t>GSOT05C-E3-08</t>
+  </si>
+  <si>
+    <t>FV3</t>
+  </si>
+  <si>
+    <t>SMBJ5.0A</t>
+  </si>
+  <si>
+    <t>однонаправ., 5В, 600Вт @ 10/1000мкс</t>
+  </si>
+  <si>
+    <t>SMB</t>
+  </si>
+  <si>
+    <t>FV2</t>
+  </si>
+  <si>
+    <t>SMBJ6.5CA</t>
+  </si>
+  <si>
+    <t>двунаправ., 6.5В, 600Вт @ 10/1000мкс</t>
+  </si>
+  <si>
+    <t>FV1</t>
+  </si>
+  <si>
+    <t>Варистор</t>
+  </si>
+  <si>
+    <t>B72540T0400K062</t>
+  </si>
+  <si>
+    <t>чип 2220, 68В, 1кА, 9Дж</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>GB1</t>
+  </si>
+  <si>
+    <t>Элемент гальванический</t>
+  </si>
+  <si>
+    <t>CR 1/2 AA S PCBD</t>
+  </si>
+  <si>
+    <t>VARTA</t>
+  </si>
+  <si>
+    <t>GB2</t>
+  </si>
+  <si>
+    <t>Батарея</t>
+  </si>
+  <si>
+    <t>BR-2325/2HAN</t>
+  </si>
+  <si>
+    <t>GB3</t>
+  </si>
+  <si>
+    <t>DS1092-04-B6P</t>
+  </si>
+  <si>
+    <t>держатель, CR2032</t>
+  </si>
+  <si>
+    <t>Connfly</t>
+  </si>
+  <si>
+    <t>HG1</t>
+  </si>
+  <si>
+    <t>Дисплей</t>
+  </si>
+  <si>
+    <t>CC56-12SRWA</t>
+  </si>
+  <si>
+    <t>светодиодный, 7-сегм., красный, сборка 4x8CC</t>
+  </si>
+  <si>
+    <t>Kingbright</t>
+  </si>
+  <si>
+    <t>HL9</t>
+  </si>
+  <si>
+    <t>Светодиод</t>
+  </si>
+  <si>
+    <t>AM23ESGW</t>
+  </si>
+  <si>
+    <t>многоцветный, сборка 1x2CC</t>
+  </si>
+  <si>
+    <t>HL1</t>
+  </si>
+  <si>
+    <t>KP-1608F3C</t>
+  </si>
+  <si>
+    <t>инфракрасный, 940нм, 150°</t>
+  </si>
+  <si>
+    <t>HL3</t>
+  </si>
+  <si>
+    <t>KPA-3010CGCK</t>
+  </si>
+  <si>
+    <t>зелёный, 574/570нм, 50мкд @ 20мА, 120°</t>
+  </si>
+  <si>
+    <t>HL8</t>
+  </si>
+  <si>
+    <t>KPBDA-3020SURKCGKC-PF</t>
+  </si>
+  <si>
+    <t>многоцветный, сборка 1x2CA</t>
+  </si>
+  <si>
+    <t>Kigbright</t>
+  </si>
+  <si>
+    <t>HL4</t>
+  </si>
+  <si>
+    <t>KPT-1608QBC-D</t>
+  </si>
+  <si>
+    <t>синий, 460/465нм, 100мкд @ 20мА, 130°</t>
+  </si>
+  <si>
+    <t>HL2</t>
+  </si>
+  <si>
+    <t>KPT-1608SURCK</t>
+  </si>
+  <si>
+    <t>красный, 645/630нм, 230мкд @ 20мА, 120°</t>
+  </si>
+  <si>
+    <t>HL5</t>
+  </si>
+  <si>
+    <t>KPT-1608SYCK</t>
+  </si>
+  <si>
+    <t>жёлтый, 590нм, 150мкд @ 20мА, 120°</t>
+  </si>
+  <si>
+    <t>HL7</t>
+  </si>
+  <si>
+    <t>SMP6-RGB</t>
+  </si>
+  <si>
+    <t>многоцветный</t>
+  </si>
+  <si>
+    <t>Bivar</t>
+  </si>
+  <si>
+    <t>HL6</t>
+  </si>
+  <si>
+    <t>XPCWHT-L1-0000-008E5</t>
+  </si>
+  <si>
+    <t>белый, 4000K, 73.9лм @ 350мА, CRI 75</t>
+  </si>
+  <si>
+    <t>Cree</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J4, J5, J6</t>
+  </si>
+  <si>
+    <t>Перемычка</t>
+  </si>
+  <si>
+    <t>RC0402JR-070RL</t>
+  </si>
+  <si>
+    <t>чип 0402</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>Реле</t>
+  </si>
+  <si>
+    <t>RT214012</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>RZ03-1A4-D012</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>T9GV2L24-12</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>V23105A5476A201</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Индуктивность</t>
+  </si>
+  <si>
+    <t>NL453232T-100K</t>
+  </si>
+  <si>
+    <t>чип 1812, 10мкГн ±10%, 250мА</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Дроссель</t>
+  </si>
+  <si>
+    <t>SRU1048-470Y</t>
+  </si>
+  <si>
+    <t>47мкГн ±30%, 1.5А</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Резистор</t>
+  </si>
+  <si>
+    <t>RC0603JR-0710KL</t>
+  </si>
+  <si>
+    <t>чип 0603, 10кОм ±5%</t>
+  </si>
+  <si>
+    <t>RP1</t>
+  </si>
+  <si>
+    <t>3006P-1-103</t>
+  </si>
+  <si>
+    <t>подстроечный, 10кОм ±10%, лин. хар-ка</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>RV0805JR-071ML</t>
+  </si>
+  <si>
+    <t>чип 0805, 10кОм ±5%, 400В</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RT0603DRD0747KL</t>
+  </si>
+  <si>
+    <t>чип 0603, 47кОм ±0.5%, ±25ppm/°C</t>
+  </si>
+  <si>
+    <t>RK2</t>
+  </si>
+  <si>
+    <t>Позистор</t>
+  </si>
+  <si>
+    <t>TFPT0805L1000FV</t>
+  </si>
+  <si>
+    <t>чип 0805, 100Ом ±1%</t>
+  </si>
+  <si>
+    <t>RK1</t>
+  </si>
+  <si>
+    <t>Термистор</t>
+  </si>
+  <si>
+    <t>NCP18XQ102J03RB</t>
+  </si>
+  <si>
+    <t>чип 0603, 1кОм ±5%</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>SA1</t>
+  </si>
+  <si>
+    <t>Переключатель</t>
+  </si>
+  <si>
+    <t>CHS-01TA</t>
+  </si>
+  <si>
+    <t>Copal Electronics Inc.</t>
+  </si>
+  <si>
+    <t>SB1</t>
+  </si>
+  <si>
+    <t>Выключатель</t>
+  </si>
+  <si>
+    <t>DTSM-61N</t>
+  </si>
+  <si>
+    <t>кнопочный</t>
+  </si>
+  <si>
+    <t>Diptronics</t>
+  </si>
+  <si>
+    <t>SA4</t>
+  </si>
+  <si>
+    <t>GPTS203211B</t>
+  </si>
+  <si>
+    <t>CW Industries</t>
+  </si>
+  <si>
+    <t>SA3</t>
+  </si>
+  <si>
+    <t>MS-22D18</t>
+  </si>
+  <si>
+    <t>движковый</t>
+  </si>
+  <si>
+    <t>SA6</t>
+  </si>
+  <si>
+    <t>PN12SHNA03QE</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>SA5</t>
+  </si>
+  <si>
+    <t>SSSF012100</t>
+  </si>
+  <si>
+    <t>SA2</t>
+  </si>
+  <si>
+    <t>SWD-08L</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Трансформатор</t>
+  </si>
+  <si>
+    <t>HX1188NL</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>VD1</t>
+  </si>
+  <si>
+    <t>Диод</t>
+  </si>
+  <si>
+    <t>BAS316</t>
+  </si>
+  <si>
+    <t>общ. прим., 250мА, 100В</t>
+  </si>
+  <si>
+    <t>SOD-323</t>
+  </si>
+  <si>
+    <t>VD5</t>
+  </si>
+  <si>
+    <t>BAT54AFILM</t>
+  </si>
+  <si>
+    <t>Шоттки, 300мА, 40В, сборка 1x2A</t>
+  </si>
+  <si>
+    <t>VD7</t>
+  </si>
+  <si>
+    <t>BAT54SFILM</t>
+  </si>
+  <si>
+    <t>Шоттки, 300мА, 40В, сборка 1x2S</t>
+  </si>
+  <si>
+    <t>VD6</t>
+  </si>
+  <si>
+    <t>BAT54СFILM</t>
+  </si>
+  <si>
+    <t>Шоттки, 300мА, 40В, сборка 1x2C</t>
+  </si>
+  <si>
+    <t>VD2</t>
+  </si>
+  <si>
+    <t>BAT20JFILM</t>
+  </si>
+  <si>
+    <t>Шоттки, 1А, 23В</t>
+  </si>
+  <si>
+    <t>VD3</t>
+  </si>
+  <si>
+    <t>Стабилитрон</t>
+  </si>
+  <si>
+    <t>BZT52H-B13</t>
+  </si>
+  <si>
+    <t>13В ±2%, 0.83Вт</t>
+  </si>
+  <si>
+    <t>SOD-123F</t>
+  </si>
+  <si>
+    <t>VD4</t>
+  </si>
+  <si>
+    <t>Варикап</t>
+  </si>
+  <si>
+    <t>BB545E7904</t>
+  </si>
+  <si>
+    <t>Infineon</t>
+  </si>
+  <si>
+    <t>VS1</t>
+  </si>
+  <si>
+    <t>Динистор</t>
+  </si>
+  <si>
+    <t>VS4</t>
+  </si>
+  <si>
+    <t>Симистор</t>
+  </si>
+  <si>
+    <t>BTA24-600BWRG</t>
+  </si>
+  <si>
+    <t>TO-220AB</t>
+  </si>
+  <si>
+    <t>VS3</t>
+  </si>
+  <si>
+    <t>TMMDB3TG</t>
+  </si>
+  <si>
+    <t>двунаправ., 32В, 2А, 15мкА</t>
+  </si>
+  <si>
+    <t>ST Microelectronics</t>
+  </si>
+  <si>
+    <t>VS2</t>
+  </si>
+  <si>
+    <t>Тиристор</t>
+  </si>
+  <si>
+    <t>TYN412RG</t>
+  </si>
+  <si>
+    <t>400В, 12А, 15мА</t>
+  </si>
+  <si>
+    <t>VT6</t>
+  </si>
+  <si>
+    <t>Транзистор</t>
+  </si>
+  <si>
+    <t>BC807</t>
+  </si>
+  <si>
+    <t>VT3</t>
+  </si>
+  <si>
+    <t>BC817</t>
+  </si>
+  <si>
+    <t>VT1</t>
+  </si>
+  <si>
+    <t>BCR108</t>
+  </si>
+  <si>
+    <t>биполярный цифровой</t>
+  </si>
+  <si>
+    <t>VT4</t>
+  </si>
+  <si>
+    <t>BCR158</t>
+  </si>
+  <si>
+    <t>VT2</t>
+  </si>
+  <si>
+    <t>IRLML2030</t>
+  </si>
+  <si>
+    <t>VT5</t>
+  </si>
+  <si>
+    <t>IRLML5103</t>
+  </si>
+  <si>
+    <t>VU1</t>
+  </si>
+  <si>
+    <t>Оптопара</t>
+  </si>
+  <si>
+    <t>LTV-357T</t>
+  </si>
+  <si>
     <t>DA1</t>
   </si>
   <si>
@@ -185,678 +890,96 @@
     <t>DIP-6</t>
   </si>
   <si>
-    <t>DA2</t>
-  </si>
-  <si>
-    <t>Микросхема</t>
-  </si>
-  <si>
-    <t>TPS561201DDC</t>
-  </si>
-  <si>
-    <t>SOT-23-6</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>DA3</t>
-  </si>
-  <si>
-    <t>LP5907MFX-3.3</t>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>DD1</t>
-  </si>
-  <si>
-    <t>SN74LVC1G126DBV</t>
-  </si>
-  <si>
-    <t>DD2</t>
-  </si>
-  <si>
-    <t>SCM3725ASA</t>
-  </si>
-  <si>
-    <t>SO-8</t>
-  </si>
-  <si>
-    <t>ER1</t>
-  </si>
-  <si>
-    <t>Радиатор</t>
-  </si>
-  <si>
-    <t>FK 244 13 D2 PAK</t>
-  </si>
-  <si>
-    <t>Fischer Elektronik</t>
-  </si>
-  <si>
-    <t>FP1</t>
-  </si>
-  <si>
-    <t>Предохранитель</t>
-  </si>
-  <si>
-    <t>MF-MSMF014</t>
-  </si>
-  <si>
-    <t>самовосст., чип 1812, 140мА, 60В</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>FU1</t>
-  </si>
-  <si>
-    <t>0451001.</t>
-  </si>
-  <si>
-    <t>плавкий, чип 2410, 1А, 0.6029А?с, быстрый</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>Littelfuse</t>
-  </si>
-  <si>
-    <t>FV1</t>
-  </si>
-  <si>
-    <t>Варистор</t>
-  </si>
-  <si>
-    <t>B72540T0400K062</t>
-  </si>
-  <si>
-    <t>чип 2220, 68В, 1кА, 9Дж</t>
-  </si>
-  <si>
-    <t>2220</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>FV2</t>
-  </si>
-  <si>
-    <t>Супрессор</t>
-  </si>
-  <si>
-    <t>SMBJ6.5CA</t>
-  </si>
-  <si>
-    <t>двунаправ., 6.5В, 600Вт @ 10/1000мкс</t>
-  </si>
-  <si>
-    <t>SMB</t>
-  </si>
-  <si>
-    <t>FV3</t>
-  </si>
-  <si>
-    <t>SMBJ5.0A</t>
-  </si>
-  <si>
-    <t>однонаправ., 5В, 600Вт @ 10/1000мкс</t>
-  </si>
-  <si>
-    <t>FV4</t>
-  </si>
-  <si>
-    <t>GSOT05C-E3-08</t>
-  </si>
-  <si>
-    <t>сборка</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>FV5</t>
-  </si>
-  <si>
-    <t>CDSOT23-T24CAN</t>
-  </si>
-  <si>
-    <t>GB1</t>
-  </si>
-  <si>
-    <t>Элемент гальванический</t>
-  </si>
-  <si>
-    <t>CR 1/2 AA S PCBD</t>
-  </si>
-  <si>
-    <t>VARTA</t>
-  </si>
-  <si>
-    <t>GB2</t>
-  </si>
-  <si>
-    <t>Батарея</t>
-  </si>
-  <si>
-    <t>BR-2325/2HAN</t>
-  </si>
-  <si>
-    <t>HG1</t>
-  </si>
-  <si>
-    <t>Индикатор</t>
-  </si>
-  <si>
-    <t>CC56-12SRWA</t>
-  </si>
-  <si>
-    <t>HL1</t>
-  </si>
-  <si>
-    <t>Светодиод</t>
-  </si>
-  <si>
-    <t>KP-1608F3C</t>
-  </si>
-  <si>
-    <t>инфракрасный, 940нм, 150°</t>
-  </si>
-  <si>
-    <t>Kingbright</t>
-  </si>
-  <si>
-    <t>HL2</t>
-  </si>
-  <si>
-    <t>KPT-1608SURCK</t>
-  </si>
-  <si>
-    <t>красный, 645/630нм, 230мкд @ 20мА, 120°</t>
-  </si>
-  <si>
-    <t>HL3</t>
-  </si>
-  <si>
-    <t>KPA-3010CGCK</t>
-  </si>
-  <si>
-    <t>зелёный, 574/570нм, 50мкд @ 20мА, 120°</t>
-  </si>
-  <si>
-    <t>HL4</t>
-  </si>
-  <si>
-    <t>KPT-1608QBC-D</t>
-  </si>
-  <si>
-    <t>синий, 460/465нм, 100мкд @ 20мА, 130°</t>
-  </si>
-  <si>
-    <t>HL5</t>
-  </si>
-  <si>
-    <t>KPT-1608SYCK</t>
-  </si>
-  <si>
-    <t>жёлтый, 590нм, 150мкд @ 20мА, 120°</t>
-  </si>
-  <si>
-    <t>HL6</t>
-  </si>
-  <si>
-    <t>XPCWHT-L1-0000-008E5</t>
-  </si>
-  <si>
-    <t>белый, 4000K, 73.9лм @ 350мА, CRI 75</t>
-  </si>
-  <si>
-    <t>Cree</t>
-  </si>
-  <si>
-    <t>HL7</t>
-  </si>
-  <si>
-    <t>SMP6-RGB</t>
-  </si>
-  <si>
-    <t>многоцветный</t>
-  </si>
-  <si>
-    <t>Bivar</t>
-  </si>
-  <si>
-    <t>HL8</t>
-  </si>
-  <si>
-    <t>KPBDA-3020SURKCGKC-PF</t>
-  </si>
-  <si>
-    <t>многоцветный, сборка 1x2CA</t>
-  </si>
-  <si>
-    <t>Kigbright</t>
-  </si>
-  <si>
-    <t>HL9</t>
-  </si>
-  <si>
-    <t>AM23ESGW</t>
-  </si>
-  <si>
-    <t>многоцветный, сборка 1x2CC</t>
-  </si>
-  <si>
-    <t>J1, J2, J3, J4, J5, J6</t>
-  </si>
-  <si>
-    <t>Перемычка</t>
-  </si>
-  <si>
-    <t>RC0402JR-070RL</t>
-  </si>
-  <si>
-    <t>чип 0402</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>Реле</t>
-  </si>
-  <si>
-    <t>RZ03-1A4-D012</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>T9GV2L24-12</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>RT214012</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>V23105A5476A201</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>Индуктивность</t>
-  </si>
-  <si>
-    <t>NL453232T-100K</t>
-  </si>
-  <si>
-    <t>чип 1812, 10мкГн ±10%, 250мА</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>Дроссель</t>
-  </si>
-  <si>
-    <t>SRU1048-470Y</t>
-  </si>
-  <si>
-    <t>47мкГн ±30%, 1.5А</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Резистор</t>
-  </si>
-  <si>
-    <t>RC0603JR-0710KL</t>
-  </si>
-  <si>
-    <t>чип 0603, 10кОм ±5%</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>RT0603DRD0747KL</t>
-  </si>
-  <si>
-    <t>чип 0603, 47кОм ±0.5%, ±25ppm/°C</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>RV0805JR-071ML</t>
-  </si>
-  <si>
-    <t>чип 0805, 10кОм ±5%, 400В</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
-    <t>RK1</t>
-  </si>
-  <si>
-    <t>Термистор</t>
-  </si>
-  <si>
-    <t>NCP18XQ102J03RB</t>
-  </si>
-  <si>
-    <t>чип 0603, 1кОм ±5%</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>RK2</t>
-  </si>
-  <si>
-    <t>Позистор</t>
-  </si>
-  <si>
-    <t>TFPT0805L1000FV</t>
-  </si>
-  <si>
-    <t>чип 0805, 100Ом ±1%</t>
-  </si>
-  <si>
-    <t>RP1</t>
-  </si>
-  <si>
-    <t>3006P-1-103</t>
-  </si>
-  <si>
-    <t>подстроечный, 10кОм ±10%, лин. хар-ка</t>
-  </si>
-  <si>
-    <t>SA1</t>
-  </si>
-  <si>
-    <t>Переключатель</t>
-  </si>
-  <si>
-    <t>CHS-01TA</t>
-  </si>
-  <si>
-    <t>Copal Electronics Inc.</t>
-  </si>
-  <si>
-    <t>SA2</t>
-  </si>
-  <si>
-    <t>SWD-08L</t>
-  </si>
-  <si>
-    <t>SA3</t>
-  </si>
-  <si>
-    <t>MS-22D18</t>
-  </si>
-  <si>
-    <t>движковый</t>
-  </si>
-  <si>
-    <t>SA4</t>
-  </si>
-  <si>
-    <t>Выключатель</t>
-  </si>
-  <si>
-    <t>GPTS203211B</t>
-  </si>
-  <si>
-    <t>CW Industries</t>
-  </si>
-  <si>
-    <t>SA5</t>
-  </si>
-  <si>
-    <t>SSSF012100</t>
-  </si>
-  <si>
-    <t>SA6</t>
-  </si>
-  <si>
-    <t>PN12SHNA03QE</t>
-  </si>
-  <si>
-    <t>C&amp;K</t>
-  </si>
-  <si>
-    <t>SB1</t>
-  </si>
-  <si>
-    <t>Кнопка</t>
-  </si>
-  <si>
-    <t>DTSM-61N</t>
-  </si>
-  <si>
-    <t>Diptronics</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>Трансформатор</t>
-  </si>
-  <si>
-    <t>HX1188NL</t>
-  </si>
-  <si>
-    <t>Pulse</t>
-  </si>
-  <si>
-    <t>VD1</t>
-  </si>
-  <si>
-    <t>Диод</t>
-  </si>
-  <si>
-    <t>BAS316</t>
-  </si>
-  <si>
-    <t>общ. прим., 250мА, 100В</t>
-  </si>
-  <si>
-    <t>SOD-323</t>
-  </si>
-  <si>
-    <t>VD2</t>
-  </si>
-  <si>
-    <t>BAT20JFILM</t>
-  </si>
-  <si>
-    <t>Шоттки, 1А, 23В</t>
-  </si>
-  <si>
-    <t>VD3</t>
-  </si>
-  <si>
-    <t>Стабилитрон</t>
-  </si>
-  <si>
-    <t>BZT52H-B13</t>
-  </si>
-  <si>
-    <t>13В ±2%, 0.83Вт</t>
-  </si>
-  <si>
-    <t>SOD-123F</t>
-  </si>
-  <si>
-    <t>VD4</t>
-  </si>
-  <si>
-    <t>BAT54AFILM</t>
-  </si>
-  <si>
-    <t>Шоттки, 300мА, 40В, сборка 1x2A</t>
-  </si>
-  <si>
-    <t>VD5</t>
-  </si>
-  <si>
-    <t>BAT54СFILM</t>
-  </si>
-  <si>
-    <t>Шоттки, 300мА, 40В, сборка 1x2C</t>
-  </si>
-  <si>
-    <t>VD6</t>
-  </si>
-  <si>
-    <t>BAT54SFILM</t>
-  </si>
-  <si>
-    <t>Шоттки, 300мА, 40В, сборка 1x2S</t>
-  </si>
-  <si>
-    <t>VS1</t>
-  </si>
-  <si>
-    <t>Симистор</t>
-  </si>
-  <si>
-    <t>BTA24-600BWRG</t>
-  </si>
-  <si>
-    <t>TO-220AB</t>
-  </si>
-  <si>
-    <t>VT1</t>
-  </si>
-  <si>
-    <t>Транзистор</t>
-  </si>
-  <si>
-    <t>BCR108</t>
-  </si>
-  <si>
-    <t>биполярный цифровой</t>
-  </si>
-  <si>
-    <t>VT2</t>
-  </si>
-  <si>
-    <t>IRLML2030</t>
-  </si>
-  <si>
-    <t>VT3</t>
-  </si>
-  <si>
-    <t>BC817</t>
-  </si>
-  <si>
-    <t>VT4</t>
-  </si>
-  <si>
-    <t>BCR158</t>
-  </si>
-  <si>
-    <t>VT5</t>
-  </si>
-  <si>
-    <t>IRLML5103</t>
-  </si>
-  <si>
-    <t>VT6</t>
-  </si>
-  <si>
-    <t>BC807</t>
-  </si>
-  <si>
-    <t>VU1</t>
-  </si>
-  <si>
-    <t>Оптопара</t>
-  </si>
-  <si>
-    <t>LTV-357T</t>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>Соединитель</t>
+  </si>
+  <si>
+    <t>292303-1</t>
+  </si>
+  <si>
+    <t>розетка</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>5035000993</t>
+  </si>
+  <si>
+    <t>Molex</t>
   </si>
   <si>
     <t>X1</t>
   </si>
   <si>
-    <t>Соединитель</t>
-  </si>
-  <si>
     <t>B4B-PH-SM4-TB</t>
   </si>
   <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>5035000993</t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>XS1</t>
-  </si>
-  <si>
-    <t>292303-1</t>
-  </si>
-  <si>
-    <t>розетка</t>
+    <t>ZF1</t>
+  </si>
+  <si>
+    <t>Фильтр ЭМП</t>
+  </si>
+  <si>
+    <t>MMZ1608B102C</t>
+  </si>
+  <si>
+    <t>ферритовая бусина, чип 0603, 1000Ом ±25% @ 100МГц, 300мА, 600мОм @ DC</t>
   </si>
   <si>
     <t>ZC1</t>
   </si>
   <si>
-    <t>Фильтр ЭМП</t>
-  </si>
-  <si>
-    <t>744242220</t>
-  </si>
-  <si>
-    <t>синфазный дроссель, 1500Ом @ 100кГц, 22мкГн +50…-30%, 300мА</t>
-  </si>
-  <si>
-    <t>Wurth Electronics Inc.</t>
-  </si>
-  <si>
-    <t>ZF1</t>
-  </si>
-  <si>
-    <t>MMZ1608B102C</t>
-  </si>
-  <si>
-    <t>ферритовая бусина, чип 0603, 1000Ом ±25% @ 100МГц, 300мА</t>
+    <t>WCM4532F2SF-142T20-HI</t>
+  </si>
+  <si>
+    <t>синфазный дроссель, 1.4кОм @ 100МГц, 2А, 0.1Ом @ DC</t>
+  </si>
+  <si>
+    <t>TAI-TECH Advanced Electronics Co., Ltd.</t>
+  </si>
+  <si>
+    <t>DD3</t>
+  </si>
+  <si>
+    <t>Осциллятор</t>
+  </si>
+  <si>
+    <t>ECS-3225MV-250-CN</t>
+  </si>
+  <si>
+    <t>кварц., 25МГц ±25ppm, -40…85°C</t>
+  </si>
+  <si>
+    <t>4-SMD (3225)</t>
+  </si>
+  <si>
+    <t>ECS Inc.</t>
+  </si>
+  <si>
+    <t>ZQ2</t>
+  </si>
+  <si>
+    <t>Резонатор</t>
+  </si>
+  <si>
+    <t>ABS07-32.768KHZ-T</t>
+  </si>
+  <si>
+    <t>кварцевый, 32.768кГц ±20ppm, 12.5пФ, 70кОм, -40…85°C</t>
+  </si>
+  <si>
+    <t>2-SMD (3215)</t>
+  </si>
+  <si>
+    <t>Abracon</t>
   </si>
   <si>
     <t>ZQ1</t>
   </si>
   <si>
-    <t>Резонатор</t>
-  </si>
-  <si>
     <t>FY0800018</t>
   </si>
   <si>
@@ -869,21 +992,6 @@
     <t>Diodes Incorporated</t>
   </si>
   <si>
-    <t>ZQ2</t>
-  </si>
-  <si>
-    <t>ABS07-32.768KHZ-T</t>
-  </si>
-  <si>
-    <t>кварцевый, 32.768кГц ±20ppm, 12.5пФ, 70кОм, -40…85°C</t>
-  </si>
-  <si>
-    <t>2-SMD (3215)</t>
-  </si>
-  <si>
-    <t>Abracon</t>
-  </si>
-  <si>
     <t>Изнач. номинал</t>
   </si>
   <si>
@@ -909,6 +1017,18 @@
   </si>
   <si>
     <t>огр. тока 3А</t>
+  </si>
+  <si>
+    <t>BH-25F-1</t>
+  </si>
+  <si>
+    <t>Adam Tech</t>
+  </si>
+  <si>
+    <t>BS-7</t>
+  </si>
+  <si>
+    <t>Memory Protection Devices</t>
   </si>
   <si>
     <t>5035000991</t>
@@ -1273,19 +1393,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1476,42 +1595,46 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="2">
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1519,20 +1642,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1540,41 +1665,41 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -1582,20 +1707,20 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1603,20 +1728,20 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1624,20 +1749,20 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -1645,18 +1770,18 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -1664,20 +1789,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1685,22 +1812,20 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -1708,63 +1833,61 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1776,7 +1899,7 @@
         <v>97</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>98</v>
@@ -1797,38 +1920,40 @@
         <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -1836,30 +1961,32 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1870,22 +1997,20 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -1893,81 +2018,83 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2">
         <v>1</v>
@@ -1975,20 +2102,20 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -1996,104 +2123,104 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="G38" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -2101,37 +2228,41 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -2139,18 +2270,18 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -2158,41 +2289,37 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F43" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="G43" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>168</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -2200,45 +2327,39 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
       <c r="G45" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -2246,19 +2367,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>25</v>
@@ -2269,22 +2390,20 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -2292,22 +2411,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -2315,20 +2434,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -2336,18 +2457,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -2355,54 +2480,62 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="G52" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="G53" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -2410,54 +2543,56 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="G55" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -2465,41 +2600,33 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
-        <v>217</v>
-      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2">
         <v>1</v>
@@ -2507,40 +2634,40 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F60" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="G60" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2">
@@ -2549,19 +2676,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2">
@@ -2570,19 +2697,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2">
@@ -2591,19 +2718,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2">
@@ -2612,17 +2739,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D65" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="E65" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2">
@@ -2631,19 +2760,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2">
@@ -2652,37 +2781,33 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="G67" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>251</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2">
         <v>1</v>
@@ -2690,19 +2815,17 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>247</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2">
@@ -2711,54 +2834,60 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="G70" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="G71" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2">
         <v>1</v>
@@ -2766,16 +2895,18 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2">
         <v>1</v>
@@ -2783,131 +2914,289 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="2"/>
       <c r="G74" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2" t="s">
-        <v>153</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" s="2"/>
       <c r="G75" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="C76" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>283</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
       <c r="G78" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>288</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F79" s="2"/>
       <c r="G79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G87" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2918,28 +3207,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="70.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -2951,39 +3238,39 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2993,44 +3280,87 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
